--- a/test/cbb_2020.xlsx
+++ b/test/cbb_2020.xlsx
@@ -9,23 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19500"/>
   </bookViews>
   <sheets>
     <sheet name="cbb_2020" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">cbb_2020!$S$2:$S$76</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">cbb_2020!$W$2:$W$76</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">cbb_2020!$S$2:$S$76</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">cbb_2020!$W$2:$W$76</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <t>RK</t>
   </si>
@@ -340,6 +334,9 @@
   </si>
   <si>
     <t>AVRB</t>
+  </si>
+  <si>
+    <t>BOTH</t>
   </si>
 </sst>
 </file>
@@ -1878,8 +1875,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.25821697480764172"/>
-                  <c:y val="-0.33306469680980599"/>
+                  <c:x val="0.26446187566144941"/>
+                  <c:y val="-0.11416251319100573"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2148,234 +2145,234 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cbb_2020!$N$2:$N$76</c:f>
+              <c:f>cbb_2020!$M$2:$M$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>34.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="18">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>32.200000000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="37">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>30.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="62">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>25.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>26.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29.8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>27.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>32.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>31.6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>25.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>28.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25.9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>31.1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>23.9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>27.8</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>31.8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>25.4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>26.9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>26.3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>27.4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>27.4</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>31.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>27.7</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>27.8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>31.8</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>29.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,7 +2478,7 @@
         <c:axId val="1547016079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
+          <c:max val="40"/>
           <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6613,16 +6610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>75078</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>97490</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175932</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>175931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>145115</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>33056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6643,16 +6640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>256615</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>114860</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99733</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>137272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6707,16 +6704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>481852</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>424702</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>148478</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>10084</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>159684</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7003,10 +7000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AC2:AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7014,7 +7011,7 @@
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7087,8 +7084,29 @@
       <c r="X1" t="s">
         <v>104</v>
       </c>
+      <c r="AB1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -7167,8 +7185,35 @@
         <f>F2-G2</f>
         <v>23.399999999999991</v>
       </c>
+      <c r="AB2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="1">
+        <f>AVERAGE(F2:F16)</f>
+        <v>107.64666666666668</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>AVERAGE(G2:G16)</f>
+        <v>95.899999999999991</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>AVERAGE(M2:M16)</f>
+        <v>28.90666666666667</v>
+      </c>
+      <c r="AF2" s="1">
+        <f>AVERAGE(Q2:Q16)</f>
+        <v>49.533333333333331</v>
+      </c>
+      <c r="AG2" s="1">
+        <f>AVERAGE(S2:S16)</f>
+        <v>32.846666666666671</v>
+      </c>
+      <c r="AH2" s="1">
+        <f>AC2-AD2</f>
+        <v>11.746666666666684</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -7247,8 +7292,35 @@
         <f t="shared" ref="Y3:Y66" si="2">F3-G3</f>
         <v>21.199999999999989</v>
       </c>
+      <c r="AB3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="1">
+        <f>AVERAGE(F17:F30)</f>
+        <v>110.66428571428571</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>AVERAGE(G17:G30)</f>
+        <v>94.285714285714292</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>AVERAGE(M17:M30)</f>
+        <v>29.728571428571431</v>
+      </c>
+      <c r="AF3" s="1">
+        <f>AVERAGE(Q17:Q30)</f>
+        <v>49.578571428571429</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>AVERAGE(S17:S30)</f>
+        <v>33.064285714285717</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" ref="AH3:AH7" si="3">AC3-AD3</f>
+        <v>16.378571428571419</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -7327,8 +7399,35 @@
         <f t="shared" si="2"/>
         <v>18.700000000000003</v>
       </c>
+      <c r="AB4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>AVERAGE(F31:F40)</f>
+        <v>108.32000000000001</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>AVERAGE(G31:G40)</f>
+        <v>92.940000000000012</v>
+      </c>
+      <c r="AE4" s="1">
+        <f>AVERAGE(M31:M40)</f>
+        <v>30.7</v>
+      </c>
+      <c r="AF4" s="1">
+        <f>AVERAGE(Q31:Q40)</f>
+        <v>49.339999999999996</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>AVERAGE(S31:S40)</f>
+        <v>32.850000000000009</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="3"/>
+        <v>15.379999999999995</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>34</v>
       </c>
@@ -7407,8 +7506,35 @@
         <f t="shared" si="2"/>
         <v>14.400000000000006</v>
       </c>
+      <c r="AB5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="1">
+        <f>AVERAGE(F41:F50)</f>
+        <v>110.86999999999998</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>AVERAGE(G41:G50)</f>
+        <v>94.960000000000008</v>
+      </c>
+      <c r="AE5" s="1">
+        <f>AVERAGE(M41:M50)</f>
+        <v>29.78</v>
+      </c>
+      <c r="AF5" s="1">
+        <f>AVERAGE(Q41:Q50)</f>
+        <v>49.379999999999995</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>AVERAGE(S41:S50)</f>
+        <v>34.260000000000005</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="3"/>
+        <v>15.909999999999968</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>44</v>
       </c>
@@ -7487,8 +7613,35 @@
         <f t="shared" si="2"/>
         <v>14.900000000000006</v>
       </c>
+      <c r="AB6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="1">
+        <f>AVERAGE(F51:F62)</f>
+        <v>107.23333333333335</v>
+      </c>
+      <c r="AD6" s="1">
+        <f>AVERAGE(G51:G62)</f>
+        <v>95.850000000000009</v>
+      </c>
+      <c r="AE6" s="1">
+        <f>AVERAGE(M51:M62)</f>
+        <v>28.600000000000005</v>
+      </c>
+      <c r="AF6" s="1">
+        <f>AVERAGE(Q51:Q62)</f>
+        <v>49.608333333333327</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>AVERAGE(S51:S62)</f>
+        <v>34.124999999999993</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="3"/>
+        <v>11.38333333333334</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>46</v>
       </c>
@@ -7567,8 +7720,35 @@
         <f t="shared" si="2"/>
         <v>14.099999999999994</v>
       </c>
+      <c r="AB7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="1">
+        <f>AVERAGE(F63:F76)</f>
+        <v>108.74285714285713</v>
+      </c>
+      <c r="AD7" s="1">
+        <f>AVERAGE(G63:G76)</f>
+        <v>97.721428571428604</v>
+      </c>
+      <c r="AE7" s="1">
+        <f>AVERAGE(M63:M76)</f>
+        <v>30.664285714285711</v>
+      </c>
+      <c r="AF7" s="1">
+        <f>AVERAGE(Q63:Q76)</f>
+        <v>51.135714285714286</v>
+      </c>
+      <c r="AG7" s="1">
+        <f>AVERAGE(S63:S76)</f>
+        <v>32.207142857142863</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="3"/>
+        <v>11.02142857142853</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>51</v>
       </c>
@@ -7648,7 +7828,7 @@
         <v>12.299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>55</v>
       </c>
@@ -7728,7 +7908,7 @@
         <v>12.700000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71</v>
       </c>
@@ -7808,7 +7988,7 @@
         <v>10.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>78</v>
       </c>
@@ -7888,7 +8068,7 @@
         <v>9.9000000000000057</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -7968,7 +8148,7 @@
         <v>7.2000000000000028</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>102</v>
       </c>
@@ -8048,7 +8228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>118</v>
       </c>
@@ -8128,7 +8308,7 @@
         <v>5.2000000000000028</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>123</v>
       </c>
@@ -8208,7 +8388,7 @@
         <v>4.4000000000000057</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>167</v>
       </c>
@@ -12356,15 +12536,15 @@
         <v>-0.5</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" ref="W67:W76" si="3">E67/D67 * 100</f>
+        <f t="shared" ref="W67:W76" si="4">E67/D67 * 100</f>
         <v>64.516129032258064</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X76" si="4">AVERAGE(M67,N67)</f>
+        <f t="shared" ref="X67:X76" si="5">AVERAGE(M67,N67)</f>
         <v>32.65</v>
       </c>
       <c r="Y67">
-        <f t="shared" ref="Y67:Y76" si="5">F67-G67</f>
+        <f t="shared" ref="Y67:Y76" si="6">F67-G67</f>
         <v>13.799999999999997</v>
       </c>
     </row>
@@ -12436,15 +12616,15 @@
         <v>-1.3</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="X68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.45</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.800000000000011</v>
       </c>
     </row>
@@ -12516,15 +12696,15 @@
         <v>-3.8</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.612903225806448</v>
       </c>
       <c r="X69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.35</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.200000000000003</v>
       </c>
     </row>
@@ -12596,15 +12776,15 @@
         <v>-2.4</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58.064516129032263</v>
       </c>
       <c r="X70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.35</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.5</v>
       </c>
     </row>
@@ -12676,15 +12856,15 @@
         <v>-2.1</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.838709677419352</v>
       </c>
       <c r="X71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.3</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.799999999999997</v>
       </c>
     </row>
@@ -12756,15 +12936,15 @@
         <v>-4.2</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.612903225806448</v>
       </c>
       <c r="X72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.85</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6000000000000085</v>
       </c>
     </row>
@@ -12836,15 +13016,15 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.387096774193552</v>
       </c>
       <c r="X73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.549999999999997</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0999999999999943</v>
       </c>
     </row>
@@ -12916,15 +13096,15 @@
         <v>-5.5</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.875</v>
       </c>
       <c r="X74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.1</v>
       </c>
       <c r="Y74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
     </row>
@@ -12996,15 +13176,15 @@
         <v>-3.9</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.333333333333336</v>
       </c>
       <c r="X75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.55</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7999999999999972</v>
       </c>
     </row>
@@ -13076,15 +13256,15 @@
         <v>-10</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.375</v>
       </c>
       <c r="X76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.4</v>
       </c>
       <c r="Y76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1999999999999886</v>
       </c>
     </row>

--- a/test/cbb_2020.xlsx
+++ b/test/cbb_2020.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koric1\Documents\CS498_website\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarik's PC\Documents\CS498_website\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F5626-BA73-4162-95D5-7B85F12DC086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cbb_2020" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -342,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,7 +908,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1525,7 +1536,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1620,7 +1630,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1702,7 +1711,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1784,7 +1792,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2403,7 +2410,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2498,7 +2504,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2580,7 +2585,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3250,7 +3254,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3345,7 +3348,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3427,7 +3429,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3509,7 +3510,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4138,7 +4138,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4233,7 +4232,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4315,7 +4313,850 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.28649927930046687"/>
+                  <c:y val="-4.6445328354574236E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cbb_2020!$W$2:$W$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>80.645161290322577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.870967741935488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.612903225806448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.424242424242422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.935483870967744</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.387096774193552</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.484848484848484</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.967741935483872</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.29032258064516</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.612903225806448</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.387096774193552</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.806451612903224</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.064516129032263</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.29032258064516</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61.29032258064516</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.612903225806448</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70.967741935483872</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.29032258064516</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51.612903225806448</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>77.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>70.967741935483872</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>64.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.064516129032263</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51.612903225806448</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80.645161290322577</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61.29032258064516</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>80.645161290322577</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67.741935483870961</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.612903225806448</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>58.064516129032263</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54.838709677419352</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51.612903225806448</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48.387096774193552</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>53.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cbb_2020!$G$2:$G$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>93.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>101.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>95.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>100.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>103.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E427-44D9-8532-7CAEE3046378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1547012751"/>
+        <c:axId val="1547016079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1547012751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1547016079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1547016079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="105"/>
+          <c:min val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1547012751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4542,6 +5383,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6091,6 +6972,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6623,7 +8020,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6653,7 +8056,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6685,7 +8094,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6717,7 +8132,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6729,6 +8150,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503144</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453CDAA1-BAAE-4577-9EB6-AE46F0314DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6999,11 +8463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AC2:AH7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13269,10 +14733,25 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:V354">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V354">
     <sortCondition ref="C2:C354"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB8A292-91F1-434B-882D-CF8A53A0EC18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>